--- a/asistencia 26-9-2020 - prueba de equipo.xlsx
+++ b/asistencia 26-9-2020 - prueba de equipo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mauricio Aguilar\Desktop\Universidad\Ayudantías\Ayudantia ABD 2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\administracionBD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E959F91-615C-4B0B-AACE-270A33585995}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F39BEE07-EF18-4E7B-A9C2-A32020B5A95C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="2055" windowWidth="28230" windowHeight="13380" xr2:uid="{1D157027-2CA7-4E0B-9A3D-A440314511FA}"/>
+    <workbookView xWindow="7755" yWindow="345" windowWidth="15300" windowHeight="8325" xr2:uid="{1D157027-2CA7-4E0B-9A3D-A440314511FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -20,20 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="35">
   <si>
     <t>Alumnos</t>
   </si>
@@ -117,6 +109,27 @@
   </si>
   <si>
     <t>Diego López</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Presente </t>
+  </si>
+  <si>
+    <t>Hoja a mano</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>Jorge Burgos</t>
+  </si>
+  <si>
+    <t>Aaron Ramos</t>
+  </si>
+  <si>
+    <t>Tiene problemas de conección</t>
+  </si>
+  <si>
+    <t>Alejandro Ortíz</t>
   </si>
 </sst>
 </file>
@@ -181,7 +194,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -477,160 +490,328 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB56A8E8-CFFA-4AC8-BCDE-F6F36E3FA8A9}">
-  <dimension ref="A1:A29"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32:C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
